--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Manish_work\Python Project\BirthdayBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Srno</t>
   </si>
@@ -31,12 +36,18 @@
     <t>Year</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Manish Pal</t>
   </si>
   <si>
     <t>Wishing you the most important things in life; health, peace, love &amp; happiness. Happy Birthday…</t>
   </si>
   <si>
+    <t>manish678pal@gmail.com</t>
+  </si>
+  <si>
     <t>Deepak Gupta</t>
   </si>
   <si>
@@ -46,10 +57,16 @@
     <t>Vijay Yadav</t>
   </si>
   <si>
-    <t>Kenil Mujat</t>
+    <t>Ajay AJ</t>
   </si>
   <si>
     <t>Omkar Jamble</t>
+  </si>
+  <si>
+    <t>2019,2020</t>
+  </si>
+  <si>
+    <t>omkarjhamble@gmail.com</t>
   </si>
   <si>
     <t>Dhaval Dessai</t>
@@ -71,13 +88,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,19 +121,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -163,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,10 +238,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,7 +272,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,224 +448,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="78.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
         <v>44049</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
         <v>44144</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
         <v>43921</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
         <v>44017</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
         <v>44190</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44172</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44173</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44165</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44173</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>2019</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
         <v>44132</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
         <v>44102</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
         <v>43877</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
         <v>43832</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>